--- a/Medium Instances/Medium3.xlsx
+++ b/Medium Instances/Medium3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobnitter/Documents/NTNU/Prosjektoppgave/samkjoring2022/Medium Instances/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3FDA71-99A1-9A44-AF65-A856E4A95F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9114D475-8B65-4B21-9B28-9CC3C8894C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8535" yWindow="1920" windowWidth="19305" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium3" sheetId="12" r:id="rId1"/>
@@ -32,8 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -63,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="92">
   <si>
     <t>Rider</t>
   </si>
@@ -1112,21 +1110,21 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="G7" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1170,54 +1168,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B6" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Kårtveit</v>
       </c>
       <c r="C2" s="3">
-        <f>_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
         <v>4.9934529999999997</v>
       </c>
       <c r="D2" s="4">
-        <f>_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
         <v>60.388651000000003</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:F17" si="0">C2*111.021</f>
+        <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
         <v>554.37814551299994</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>6704.4084226710002</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
+      <c r="G2" s="3" t="str">
+        <f t="shared" ref="G2:G6" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Årstad</v>
       </c>
       <c r="H2" s="6">
-        <f>_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I2" s="63">
-        <f>_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.363500999999999</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:K17" si="1">H2*111.021</f>
-        <v>591.31594242300002</v>
+        <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
+        <v>594.22380445500005</v>
       </c>
       <c r="K2" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
-        <f t="array" ref="M2">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>68</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1242,54 +1242,56 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
+      <c r="B3" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Telavåg</v>
       </c>
       <c r="C3" s="3">
-        <f>_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.261564</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>553.10906446199999</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6690.2990968439999</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3" si="3">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I3" s="63">
-        <f>_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.290962</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
-        <f t="array" ref="M3">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>88</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1316,54 +1318,56 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
+      <c r="B4" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Foldnes</v>
       </c>
       <c r="C4" s="3">
-        <f>_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D4" s="4">
-        <f>_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.375988</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>566.93628592800007</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6703.0025637480003</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
-        <f>_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
-        <f>_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
-        <f t="array" ref="M4">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>48</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1387,54 +1391,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
+      <c r="B5" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:C26" si="4">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f t="shared" ref="C5:C26" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D19" si="5">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f t="shared" ref="D5:D19" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6703.0025637480003</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H26" si="6">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <f t="shared" ref="H5:H26" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
         <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
-        <f t="shared" ref="I5:I19" si="7">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <f t="shared" ref="I5:I19" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
         <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
-        <f t="array" ref="M5">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>54</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1458,54 +1464,56 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
+      <c r="B6" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="4"/>
-        <v>4.9934529999999997</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="5"/>
-        <v>60.388651000000003</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6704.5962702030001</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="6"/>
-        <v>5.3261630000000002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
-        <f t="shared" si="7"/>
-        <v>60.395409000000001</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
-        <f t="array" ref="M6">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>42</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1529,56 +1537,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <f t="shared" ref="B7:B26" ca="1" si="10">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <f t="shared" ref="G7:G26" ca="1" si="11">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1590,48 +1598,48 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Foldnes</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1065680000000002</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.375988</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>566.93628592800007</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6703.0025637480003</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ytrebygda</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
-      </c>
-      <c r="G8" s="3" t="str">
+        <v>5.2586760000000004</v>
+      </c>
+      <c r="I8" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
-      </c>
-      <c r="I8" s="63">
-        <f t="shared" ca="1" si="7"/>
         <v>60.290962</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -1639,7 +1647,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1651,56 +1659,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Brattholmen</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1522740000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.354616</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>572.01061175400002</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.629822936</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Laksevåg</v>
+      </c>
+      <c r="H9" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
-      </c>
-      <c r="G9" s="3" t="str">
+        <v>5.2647930000000001</v>
+      </c>
+      <c r="I9" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I9" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1712,48 +1720,48 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Bildøyna</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1060850000000002</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.354084999999998</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>566.88266278499998</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.5708707849999</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
-      </c>
-      <c r="G10" s="3" t="str">
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I10" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
-      </c>
-      <c r="I10" s="63">
-        <f t="shared" ca="1" si="7"/>
         <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -1761,7 +1769,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1773,56 +1781,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Kårtveit</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.9934529999999997</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.388651000000003</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>554.37814551299994</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6704.4084226710002</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
-      </c>
-      <c r="G11" s="3" t="str">
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I11" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
-      </c>
-      <c r="I11" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1835,56 +1843,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Brattholmen</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1522740000000002</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.354616</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>572.01061175400002</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.629822936</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H12" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
-      </c>
-      <c r="G12" s="3" t="str">
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I12" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I12" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1899,368 +1907,368 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Brattholmen</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1522740000000002</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.354616</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>572.01061175400002</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.629822936</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Laksevåg</v>
+      </c>
+      <c r="H13" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
-      </c>
-      <c r="G13" s="3" t="str">
+        <v>5.2647930000000001</v>
+      </c>
+      <c r="I13" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I13" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Knarrevik</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1530250000000004</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.368082999999999</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>572.0939885250001</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6702.1249427430002</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ytrebygda</v>
+      </c>
+      <c r="H14" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
-      </c>
-      <c r="G14" s="3" t="str">
+        <v>5.2586760000000004</v>
+      </c>
+      <c r="I14" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I14" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Brattholmen</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1522740000000002</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.354616</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>572.01061175400002</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.629822936</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Laksevåg</v>
+      </c>
+      <c r="H15" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
-      </c>
-      <c r="G15" s="3" t="str">
+        <v>5.2647930000000001</v>
+      </c>
+      <c r="I15" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I15" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Knarrevik</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1530250000000004</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.368082999999999</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>572.0939885250001</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6702.1249427430002</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ytrebygda</v>
+      </c>
+      <c r="H16" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
-      </c>
-      <c r="G16" s="3" t="str">
+        <v>5.2586760000000004</v>
+      </c>
+      <c r="I16" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I16" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Straume</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1213329999999999</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.356560999999999</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>568.57551099299997</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.8457587809999</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H17" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
-      </c>
-      <c r="G17" s="3" t="str">
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I17" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
-      </c>
-      <c r="I17" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Spjeld</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0396080000000003</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.390343000000001</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" ref="E18:F24" ca="1" si="12">C18*111.021</f>
+        <v>559.50231976800001</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6704.5962702030001</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ytrebygda</v>
+      </c>
+      <c r="H18" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>561.31429350899998</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
-      </c>
-      <c r="G18" s="3" t="str">
+        <v>5.2586760000000004</v>
+      </c>
+      <c r="I18" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I18" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>594.22380445500005</v>
+        <f t="shared" ref="J18:K24" ca="1" si="13">H18*111.021</f>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Telavåg</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.9820219999999997</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.261564</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>553.10906446199999</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6690.2990968439999</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Årstad</v>
+      </c>
+      <c r="H19" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
-      </c>
-      <c r="G19" s="3" t="str">
+        <v>5.3523550000000002</v>
+      </c>
+      <c r="I19" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
-      </c>
-      <c r="I19" s="63">
-        <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2276,56 +2284,56 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Kårtveit</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.9934529999999997</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" ref="D20:D26" ca="1" si="14">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.388651000000003</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>554.37814551299994</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6704.4084226710002</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H20" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
-        <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <f t="shared" ref="I20:I26" ca="1" si="15">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2343,56 +2351,56 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Knarrevik</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1530250000000004</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ca="1" si="14"/>
+        <v>60.368082999999999</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>572.0939885250001</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6702.1249427430002</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Årstad</v>
+      </c>
+      <c r="H21" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>564.85408707299996</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I21" s="63">
+        <f t="shared" ca="1" si="15"/>
+        <v>60.363500999999999</v>
+      </c>
+      <c r="J21" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2410,48 +2418,48 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Brattholmen</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1522740000000002</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" ca="1" si="14"/>
+        <v>60.354616</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>572.01061175400002</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6700.629822936</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H22" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" ca="1" si="6"/>
         <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
+        <f t="shared" ca="1" si="15"/>
+        <v>60.395409000000001</v>
+      </c>
+      <c r="J22" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" ca="1" si="11"/>
         <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -2459,7 +2467,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2483,48 +2491,48 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Spjeld</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0396080000000003</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ca="1" si="14"/>
+        <v>60.390343000000001</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>559.50231976800001</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6704.5962702030001</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ytrebygda</v>
+      </c>
+      <c r="H23" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>564.85408707299996</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
-      </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" ca="1" si="6"/>
         <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
+        <f t="shared" ca="1" si="15"/>
+        <v>60.290962</v>
+      </c>
+      <c r="J23" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" ca="1" si="11"/>
         <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
@@ -2532,7 +2540,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2556,48 +2564,48 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Knarrevik</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1530250000000004</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" ca="1" si="14"/>
+        <v>60.368082999999999</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>572.0939885250001</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6702.1249427430002</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Årstad</v>
+      </c>
+      <c r="H24" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
-      </c>
-      <c r="C24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
-      </c>
-      <c r="G24" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" ca="1" si="6"/>
         <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
+        <f t="shared" ca="1" si="15"/>
+        <v>60.363500999999999</v>
+      </c>
+      <c r="J24" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
-      </c>
-      <c r="J24" s="8">
-        <f t="shared" ca="1" si="11"/>
         <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -2605,7 +2613,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2630,48 +2638,48 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Kårtveit</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.9934529999999997</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ca="1" si="14"/>
+        <v>60.388651000000003</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" ref="E25:E26" ca="1" si="16">C25*111.021</f>
+        <v>554.37814551299994</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" ref="F25:F26" ca="1" si="17">D25*111.021</f>
+        <v>6704.4084226710002</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Årstad</v>
+      </c>
+      <c r="H25" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
-      </c>
-      <c r="D25" s="4">
-        <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>553.10906446199999</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6690.2990968439999</v>
-      </c>
-      <c r="G25" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" ca="1" si="6"/>
         <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
+        <f t="shared" ref="J25:J26" ca="1" si="18">H25*111.021</f>
         <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
+        <f t="shared" ref="K25:K26" ca="1" si="19">I25*111.021</f>
         <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
@@ -2679,7 +2687,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2688,68 +2696,68 @@
         <v>20</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" ref="T25:T47" si="18">S25+7</f>
+        <f t="shared" ref="T25:T47" si="20">S25+7</f>
         <v>27</v>
       </c>
       <c r="U25" s="23">
-        <f t="shared" ref="U25:U47" si="19">S25+4</f>
+        <f t="shared" ref="U25:U47" si="21">S25+4</f>
         <v>24</v>
       </c>
       <c r="V25" s="24">
-        <f t="shared" ref="V25:V47" si="20">S25+8</f>
+        <f t="shared" ref="V25:V47" si="22">S25+8</f>
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Kolltveit</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0878129999999997</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" ca="1" si="14"/>
+        <v>60.352223000000002</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" ca="1" si="16"/>
+        <v>564.85408707299996</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>6700.3641496830005</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="H26" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
-      </c>
-      <c r="D26" s="4">
-        <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" ca="1" si="14"/>
-        <v>561.31429350899998</v>
-      </c>
-      <c r="F26" s="5">
+        <v>5.3261630000000002</v>
+      </c>
+      <c r="I26" s="63">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.7674984380001</v>
-      </c>
-      <c r="G26" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
-      </c>
-      <c r="I26" s="63">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -2758,19 +2766,19 @@
         <v>21</v>
       </c>
       <c r="T26" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
       <c r="U26" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>25</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -2786,19 +2794,19 @@
         <v>17</v>
       </c>
       <c r="T27" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="U27" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="V27" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -2814,19 +2822,19 @@
         <v>15</v>
       </c>
       <c r="T28" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="U28" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="V28" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -2842,19 +2850,19 @@
         <v>20</v>
       </c>
       <c r="T29" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="U29" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="V29" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -2870,19 +2878,19 @@
         <v>15</v>
       </c>
       <c r="T30" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="U30" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="V30" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -2898,19 +2906,19 @@
         <v>21</v>
       </c>
       <c r="T31" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
       <c r="U31" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>25</v>
       </c>
       <c r="V31" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -2926,19 +2934,19 @@
         <v>29</v>
       </c>
       <c r="T32" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>36</v>
       </c>
       <c r="U32" s="37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>33</v>
       </c>
       <c r="V32" s="38">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -2954,19 +2962,19 @@
         <v>11</v>
       </c>
       <c r="T33" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="U33" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="V33" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -2980,19 +2988,19 @@
       </c>
       <c r="S34" s="41"/>
       <c r="T34" s="42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="U34" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="V34" s="44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -3008,19 +3016,19 @@
         <v>14</v>
       </c>
       <c r="T35" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="U35" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="V35" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -3036,19 +3044,19 @@
         <v>33</v>
       </c>
       <c r="T36" s="46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
       <c r="U36" s="38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>37</v>
       </c>
       <c r="V36" s="47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -3064,19 +3072,19 @@
         <v>17</v>
       </c>
       <c r="T37" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="U37" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="V37" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -3092,19 +3100,19 @@
         <v>32</v>
       </c>
       <c r="T38" s="49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>39</v>
       </c>
       <c r="U38" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>36</v>
       </c>
       <c r="V38" s="46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -3120,19 +3128,19 @@
         <v>37</v>
       </c>
       <c r="T39" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>44</v>
       </c>
       <c r="U39" s="47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>41</v>
       </c>
       <c r="V39" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -3146,19 +3154,19 @@
       </c>
       <c r="S40" s="41"/>
       <c r="T40" s="42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="U40" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="V40" s="44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -3174,19 +3182,19 @@
         <v>40</v>
       </c>
       <c r="T41" s="27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>47</v>
       </c>
       <c r="U41" s="50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>44</v>
       </c>
       <c r="V41" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -3202,19 +3210,19 @@
         <v>28</v>
       </c>
       <c r="T42" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>35</v>
       </c>
       <c r="U42" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>32</v>
       </c>
       <c r="V42" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -3230,19 +3238,19 @@
         <v>36</v>
       </c>
       <c r="T43" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>43</v>
       </c>
       <c r="U43" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>40</v>
       </c>
       <c r="V43" s="50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -3258,19 +3266,19 @@
         <v>44</v>
       </c>
       <c r="T44" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>51</v>
       </c>
       <c r="U44" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>48</v>
       </c>
       <c r="V44" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -3278,19 +3286,19 @@
         <v>30</v>
       </c>
       <c r="T45" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>37</v>
       </c>
       <c r="U45" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>34</v>
       </c>
       <c r="V45" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -3298,19 +3306,19 @@
         <v>15</v>
       </c>
       <c r="T46" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="U46" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="V46" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -3318,19 +3326,19 @@
         <v>26</v>
       </c>
       <c r="T47" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>33</v>
       </c>
       <c r="U47" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>30</v>
       </c>
       <c r="V47" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -3347,18 +3355,18 @@
       <selection activeCell="N19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3402,7 +3410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -3474,7 +3482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3486,7 +3494,7 @@
         <v>4.9934529999999997</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <f t="shared" ref="D3" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
         <v>60.388651000000003</v>
       </c>
       <c r="E3" s="5">
@@ -3548,7 +3556,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -3619,7 +3627,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3690,7 +3698,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3761,56 +3769,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -3822,56 +3830,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -3883,29 +3891,29 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3932,7 +3940,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3944,29 +3952,29 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3993,7 +4001,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4005,56 +4013,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -4067,56 +4075,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -4131,29 +4139,29 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4180,32 +4188,32 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4232,32 +4240,32 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4284,156 +4292,156 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
@@ -4443,56 +4451,56 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4508,7 +4516,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -4533,7 +4541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -4558,7 +4566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -4589,7 +4597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -4620,7 +4628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -4652,7 +4660,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -4680,7 +4688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -4708,7 +4716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -4736,7 +4744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -4764,7 +4772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -4792,7 +4800,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -4820,7 +4828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -4848,7 +4856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -4876,7 +4884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -4904,7 +4912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -4930,7 +4938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -4958,7 +4966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -4986,7 +4994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -5014,7 +5022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -5042,7 +5050,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -5070,7 +5078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -5096,7 +5104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -5124,7 +5132,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -5152,7 +5160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -5180,7 +5188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -5208,7 +5216,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -5228,7 +5236,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -5248,7 +5256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -5268,7 +5276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -5285,18 +5293,18 @@
       <selection activeCell="H27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5340,7 +5348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -5412,7 +5420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -5424,7 +5432,7 @@
         <v>4.9934529999999997</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <f t="shared" ref="D3" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
         <v>60.388651000000003</v>
       </c>
       <c r="E3" s="5">
@@ -5486,7 +5494,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -5557,7 +5565,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -5628,7 +5636,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -5699,56 +5707,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f t="shared" ref="B5:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C5:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="shared" ref="G5:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" ref="H5:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
-        <f t="shared" ref="I5:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -5760,56 +5768,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -5821,29 +5829,29 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5870,7 +5878,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5882,56 +5890,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5943,7 +5951,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -5969,30 +5977,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6005,56 +6013,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6069,215 +6077,215 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -6287,7 +6295,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -6297,7 +6305,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -6320,7 +6328,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -6345,7 +6353,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -6370,7 +6378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -6401,7 +6409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -6432,7 +6440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -6464,7 +6472,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -6492,7 +6500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -6520,7 +6528,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -6548,7 +6556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -6576,7 +6584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -6604,7 +6612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -6632,7 +6640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -6660,7 +6668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -6688,7 +6696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -6716,7 +6724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -6742,7 +6750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -6770,7 +6778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -6798,7 +6806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -6826,7 +6834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -6854,7 +6862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -6882,7 +6890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -6908,7 +6916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -6936,7 +6944,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -6964,7 +6972,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -6992,7 +7000,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -7020,7 +7028,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -7040,7 +7048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -7060,7 +7068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -7080,7 +7088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -7097,18 +7105,18 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7152,7 +7160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -7224,7 +7232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -7298,7 +7306,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -7369,56 +7377,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f t="shared" ref="B4:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C4:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f t="shared" ref="G4:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
-        <f t="shared" ref="I4:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -7439,29 +7447,29 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7488,7 +7496,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -7509,56 +7517,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -7570,29 +7578,29 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7619,7 +7627,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -7631,56 +7639,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -7692,56 +7700,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -7753,56 +7761,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -7815,29 +7823,29 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7879,60 +7887,60 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -7941,7 +7949,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -7951,7 +7959,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -7961,7 +7969,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -7971,7 +7979,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -7994,7 +8002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -8019,7 +8027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -8044,7 +8052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -8075,7 +8083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -8106,7 +8114,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -8138,7 +8146,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -8166,7 +8174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -8194,7 +8202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -8222,7 +8230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -8250,7 +8258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -8278,7 +8286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -8306,7 +8314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -8334,7 +8342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -8362,7 +8370,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -8390,7 +8398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -8416,7 +8424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -8444,7 +8452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -8472,7 +8480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -8500,7 +8508,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -8528,7 +8536,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -8556,7 +8564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -8582,7 +8590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -8610,7 +8618,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -8638,7 +8646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -8666,7 +8674,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -8694,7 +8702,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -8714,7 +8722,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -8734,7 +8742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -8754,7 +8762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -8771,18 +8779,18 @@
       <selection activeCell="A11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8826,7 +8834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -8898,7 +8906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -8972,29 +8980,29 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -9021,7 +9029,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -9042,56 +9050,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -9112,29 +9120,29 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -9161,7 +9169,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -9182,29 +9190,29 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -9231,7 +9239,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -9243,56 +9251,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -9304,56 +9312,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -9365,56 +9373,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -9426,29 +9434,29 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -9475,7 +9483,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -9488,7 +9496,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -9509,8 +9517,8 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -9519,7 +9527,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -9529,7 +9537,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -9539,7 +9547,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -9549,7 +9557,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -9572,7 +9580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -9597,7 +9605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -9622,7 +9630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -9653,7 +9661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -9684,7 +9692,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -9716,7 +9724,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -9744,7 +9752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -9772,7 +9780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -9800,7 +9808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -9828,7 +9836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -9856,7 +9864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -9884,7 +9892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -9912,7 +9920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -9940,7 +9948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -9968,7 +9976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -9994,7 +10002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -10022,7 +10030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -10050,7 +10058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -10078,7 +10086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -10106,7 +10114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -10134,7 +10142,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -10160,7 +10168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -10188,7 +10196,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -10216,7 +10224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -10244,7 +10252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -10272,7 +10280,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -10292,7 +10300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -10312,7 +10320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -10332,7 +10340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -10352,19 +10360,19 @@
       <selection activeCell="N14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10408,7 +10416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -10480,7 +10488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -10554,56 +10562,56 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -10624,29 +10632,29 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10673,7 +10681,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -10694,49 +10702,49 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
@@ -10764,7 +10772,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -10782,7 +10790,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -10800,7 +10808,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -10818,7 +10826,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -10836,7 +10844,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -10855,7 +10863,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -10876,12 +10884,12 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -10890,7 +10898,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -10900,7 +10908,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -10910,7 +10918,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -10920,7 +10928,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -10943,7 +10951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -10968,7 +10976,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -10993,7 +11001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -11024,7 +11032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -11055,7 +11063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -11087,7 +11095,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -11115,7 +11123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -11143,7 +11151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -11171,7 +11179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -11199,7 +11207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -11227,7 +11235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -11255,7 +11263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -11283,7 +11291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -11311,7 +11319,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -11339,7 +11347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -11365,7 +11373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -11393,7 +11401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -11421,7 +11429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -11449,7 +11457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -11477,7 +11485,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -11505,7 +11513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -11531,7 +11539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -11559,7 +11567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -11587,7 +11595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -11615,7 +11623,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -11643,7 +11651,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="14" t="s">
         <v>60</v>
       </c>
@@ -11663,7 +11671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="14" t="s">
         <v>36</v>
       </c>
@@ -11683,7 +11691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -11703,7 +11711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -11720,15 +11728,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="9" t="s">
         <v>61</v>
       </c>
@@ -11748,82 +11756,82 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="9" t="s">
         <v>82</v>
       </c>
@@ -11831,7 +11839,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
@@ -11842,7 +11850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
@@ -11853,7 +11861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
@@ -11864,7 +11872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
@@ -11875,7 +11883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>71</v>
       </c>
@@ -11886,7 +11894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
@@ -11897,7 +11905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
@@ -11908,7 +11916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
@@ -11919,7 +11927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
@@ -11930,7 +11938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
@@ -11941,7 +11949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
@@ -11952,7 +11960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
@@ -11963,7 +11971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>79</v>
       </c>
@@ -11974,7 +11982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
@@ -11985,7 +11993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>81</v>
       </c>
@@ -12010,9 +12018,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
         <v>28</v>
@@ -12027,7 +12035,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
@@ -12044,7 +12052,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
@@ -12061,7 +12069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
@@ -12078,7 +12086,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
@@ -12095,7 +12103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
@@ -12112,7 +12120,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>38</v>
       </c>
@@ -12132,7 +12140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>46</v>
       </c>
@@ -12152,7 +12160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>39</v>
       </c>
@@ -12172,7 +12180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>47</v>
       </c>
@@ -12192,7 +12200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>48</v>
       </c>
@@ -12212,7 +12220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>34</v>
       </c>
@@ -12232,7 +12240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>37</v>
       </c>
@@ -12252,7 +12260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>49</v>
       </c>
@@ -12272,7 +12280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>35</v>
       </c>
@@ -12292,7 +12300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>50</v>
       </c>
@@ -12310,7 +12318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
@@ -12330,7 +12338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>52</v>
       </c>
@@ -12350,7 +12358,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>53</v>
       </c>
@@ -12370,7 +12378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>54</v>
       </c>
@@ -12390,7 +12398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>55</v>
       </c>
@@ -12410,7 +12418,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>56</v>
       </c>
@@ -12428,7 +12436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
@@ -12448,7 +12456,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>57</v>
       </c>
@@ -12468,7 +12476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>58</v>
       </c>
@@ -12488,7 +12496,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>59</v>
       </c>
@@ -12508,7 +12516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>60</v>
       </c>
@@ -12528,7 +12536,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>36</v>
       </c>
@@ -12548,7 +12556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="58" t="s">
         <v>15</v>
       </c>
@@ -12582,9 +12590,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
@@ -12604,7 +12612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
@@ -12624,7 +12632,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
@@ -12644,7 +12652,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -12664,7 +12672,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
@@ -12684,7 +12692,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
@@ -12695,7 +12703,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
@@ -12706,7 +12714,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
@@ -12717,7 +12725,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
@@ -12728,7 +12736,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
@@ -12739,7 +12747,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>

--- a/Medium Instances/Medium3.xlsx
+++ b/Medium Instances/Medium3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9114D475-8B65-4B21-9B28-9CC3C8894C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB49891-D14E-4C3B-B4CD-946D86926613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="1920" windowWidth="19305" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium3" sheetId="12" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Reisetider" sheetId="3" r:id="rId8"/>
     <sheet name="Koordinater" sheetId="4" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G2:G7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1174,23 +1174,23 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B6" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G6" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1248,50 +1248,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1324,50 +1324,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1397,23 +1397,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C26" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D19" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1470,50 +1470,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1543,50 +1543,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="10">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="11">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1604,50 +1604,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1665,23 +1665,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1726,50 +1726,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1787,23 +1787,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1849,50 +1849,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1913,23 +1913,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1965,50 +1965,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2017,50 +2017,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2121,50 +2121,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -2193,30 +2193,30 @@
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="13">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -2225,50 +2225,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2290,50 +2290,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="14">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="15">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2357,50 +2357,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="15"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2424,50 +2424,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="15"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2497,23 +2497,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2570,50 +2570,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="15"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2644,50 +2644,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="16">C25*111.021</f>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="17">D25*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="15"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="18">H25*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="19">I25*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2714,50 +2714,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="15"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -3836,50 +3836,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -3897,50 +3897,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3958,50 +3958,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4019,50 +4019,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -4081,50 +4081,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -4145,23 +4145,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4197,50 +4197,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4249,50 +4249,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4301,23 +4301,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4353,50 +4353,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4405,50 +4405,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4457,50 +4457,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -5713,50 +5713,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -5774,23 +5774,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -5835,43 +5835,43 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
@@ -5896,50 +5896,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5957,50 +5957,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6019,50 +6019,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6083,50 +6083,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6155,30 +6155,30 @@
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6187,50 +6187,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6239,23 +6239,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -7383,23 +7383,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -7453,23 +7453,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -7523,23 +7523,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -7604,30 +7604,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -7645,23 +7645,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7706,23 +7706,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -7767,23 +7767,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7810,7 +7810,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -7829,50 +7829,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -7893,50 +7893,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9006,30 +9006,30 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -9056,50 +9056,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -9126,50 +9126,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -9196,23 +9196,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -9239,7 +9239,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -9257,50 +9257,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -9318,23 +9318,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -9379,23 +9379,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -9422,7 +9422,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -9440,50 +9440,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10568,23 +10568,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -10611,7 +10611,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -10638,50 +10638,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -10708,50 +10708,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/Medium Instances/Medium3.xlsx
+++ b/Medium Instances/Medium3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB49891-D14E-4C3B-B4CD-946D86926613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DFE5BC-851A-4B86-B52E-FC9A77BCA410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1174,50 +1174,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B6" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G6" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1248,50 +1248,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1324,50 +1324,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1397,23 +1397,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C26" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D19" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1490,30 +1490,30 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1543,23 +1543,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="10">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="11">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1624,30 +1624,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1726,50 +1726,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1787,23 +1787,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1849,50 +1849,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1913,50 +1913,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1965,50 +1965,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2017,50 +2017,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -2069,23 +2069,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -2121,50 +2121,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -2173,50 +2173,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="12">C18*111.021</f>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="13">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -2225,50 +2225,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2290,50 +2290,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="14">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="15">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2357,50 +2357,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="15"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2424,43 +2424,43 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="15"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
@@ -2497,50 +2497,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="15"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2570,23 +2570,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2644,50 +2644,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="16">C25*111.021</f>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="17">D25*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="15"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="18">H25*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="19">I25*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2714,43 +2714,43 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="15"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="19"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
@@ -3775,23 +3775,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -3836,50 +3836,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -3897,50 +3897,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3958,23 +3958,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4019,50 +4019,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -4081,50 +4081,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -4145,50 +4145,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4197,50 +4197,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4249,23 +4249,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4301,50 +4301,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4353,50 +4353,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4405,50 +4405,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4457,23 +4457,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -5713,50 +5713,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -5774,50 +5774,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -5835,23 +5835,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5896,50 +5896,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5957,50 +5957,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6039,30 +6039,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6083,50 +6083,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6135,23 +6135,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6187,50 +6187,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6239,50 +6239,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -7383,50 +7383,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -7453,50 +7453,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -7523,50 +7523,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -7584,50 +7584,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -7645,50 +7645,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -7706,50 +7706,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -7767,43 +7767,43 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
@@ -7829,50 +7829,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -7913,30 +7913,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9056,23 +9056,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -9099,7 +9099,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -9126,50 +9126,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -9196,50 +9196,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -9257,50 +9257,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -9318,43 +9318,43 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
@@ -9379,50 +9379,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -9440,23 +9440,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -9483,7 +9483,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10588,30 +10588,30 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -10658,30 +10658,30 @@
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -10708,23 +10708,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>

--- a/Medium Instances/Medium3.xlsx
+++ b/Medium Instances/Medium3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobni\SamkjøringKode\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69485D6E-B69B-4F09-92E9-AA7BC9A66F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFA6772-BC8A-45EA-8C08-3E455D574066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium3" sheetId="12" r:id="rId1"/>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D26"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1181,50 +1181,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Hammersland</v>
+        <v>Foldnes</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.0687990000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.259569999999997</v>
+        <v>60.375988</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="0">C2*111.021</f>
-        <v>562.743133779</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.07772097</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G6" ca="1" si="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="2">H2*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1255,50 +1255,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B26" ca="1" si="3">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Arefjord</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C26" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.1424630000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D26" ca="1" si="5">_xlfn.XLOOKUP(B3,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.358854999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.92138472300007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6701.1004409549996</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="6">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1331,50 +1331,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ebbesvika</v>
+        <v>Foldnes</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1401279999999998</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.336067999999997</v>
+        <v>60.375988</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.662150688</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6698.5706054279999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1404,23 +1404,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bildøyna</v>
+        <v>Kleppe</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1477,23 +1477,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1550,50 +1550,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Hellesøy</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>4.7908670000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.661020999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.37569358899998</v>
+        <v>531.88684520700008</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6709.1102730419998</v>
+        <v>6734.6472124410002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1611,50 +1611,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ebbesvika</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1401279999999998</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.336067999999997</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.662150688</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6698.5706054279999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1672,50 +1672,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Solsvik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1733,50 +1733,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hammersland</v>
+        <v>Telavåg</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0687990000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.259569999999997</v>
+        <v>60.261564</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>562.743133779</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.07772097</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1794,50 +1794,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vorland</v>
+        <v>Hellesøy</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0677450000000004</v>
+        <v>4.7908670000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.227445000000003</v>
+        <v>60.661020999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>562.62611764500002</v>
+        <v>531.88684520700008</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6686.5111713450005</v>
+        <v>6734.6472124410002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1856,50 +1856,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hellesøy</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7908670000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.661020999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>531.88684520700008</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6734.6472124410002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1920,50 +1920,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.37569358899998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6709.1102730419998</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="W13" t="s">
         <v>42</v>
@@ -1981,50 +1981,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hammersland</v>
+        <v>Rongøy</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0687990000000003</v>
+        <v>4.9155160000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.259569999999997</v>
+        <v>60.507615999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>562.743133779</v>
+        <v>545.72550183600003</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.07772097</v>
+        <v>6717.6160359360001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="W14" t="s">
         <v>44</v>
@@ -2042,50 +2042,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Skogsvåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0971859999999998</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.25994</v>
+        <v>60.375988</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>565.89468690599995</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.1187987399999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2103,50 +2103,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hellesøy</v>
+        <v>Hammersland</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7908670000000004</v>
+        <v>5.0687990000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.661020999999998</v>
+        <v>60.259569999999997</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>531.88684520700008</v>
+        <v>562.743133779</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6734.6472124410002</v>
+        <v>6690.07772097</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="W16" t="s">
         <v>47</v>
@@ -2164,50 +2164,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hjelteryggen</v>
+        <v>Blomøy</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1544819999999998</v>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.381360999999998</v>
+        <v>60.538108000000001</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.25574612200001</v>
+        <v>543.19777570799999</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.5990795810003</v>
+        <v>6721.0012882680003</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="W17" t="s">
         <v>48</v>
@@ -2225,50 +2225,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kolltveit</v>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1544819999999998</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.381360999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>564.85408707299996</v>
+        <v>572.25574612200001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6703.5990795810003</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W18" t="s">
         <v>49</v>
@@ -2286,50 +2286,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2360,43 +2360,43 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Skogsvåg</v>
+        <v>Solsvik</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0971859999999998</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.25994</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>565.89468690599995</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.1187987399999</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="12">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
@@ -2436,50 +2436,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2512,50 +2512,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Rongøy</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9155160000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.507615999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>545.72550183600003</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6717.6160359360001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2589,50 +2589,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arefjord</v>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1424630000000002</v>
+        <v>5.1544819999999998</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.358854999999998</v>
+        <v>60.381360999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>570.92138472300007</v>
+        <v>572.25574612200001</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6701.1004409549996</v>
+        <v>6703.5990795810003</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2666,50 +2666,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2743,50 +2743,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hjelteryggen</v>
+        <v>Hammersland</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1544819999999998</v>
+        <v>5.0687990000000003</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.381360999999998</v>
+        <v>60.259569999999997</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="13">C25*111.021</f>
-        <v>572.25574612200001</v>
+        <v>562.743133779</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="14">D25*111.021</f>
-        <v>6703.5990795810003</v>
+        <v>6690.07772097</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="15">H25*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="16">I25*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2822,50 +2822,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ebbesvika</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1401279999999998</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.336067999999997</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>570.662150688</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6698.5706054279999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -3892,50 +3892,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -3953,50 +3953,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -4014,50 +4014,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -4075,50 +4075,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4136,23 +4136,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -4198,50 +4198,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -4262,50 +4262,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4314,23 +4314,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4366,50 +4366,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4418,50 +4418,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4470,50 +4470,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4522,50 +4522,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4574,50 +4574,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -5830,50 +5830,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -5891,23 +5891,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5934,7 +5934,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -5952,50 +5952,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -6033,30 +6033,30 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -6074,50 +6074,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6136,50 +6136,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6200,50 +6200,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6252,23 +6252,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6304,50 +6304,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6356,23 +6356,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -7500,23 +7500,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -7570,50 +7570,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -7640,50 +7640,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -7701,23 +7701,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -7762,50 +7762,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -7823,43 +7823,43 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
@@ -7884,50 +7884,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -7946,50 +7946,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8010,50 +8010,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9103,50 +9103,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -9173,23 +9173,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -9243,50 +9243,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -9313,50 +9313,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -9374,50 +9374,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -9435,50 +9435,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -9496,23 +9496,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -9539,7 +9539,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10705,30 +10705,30 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -10755,23 +10755,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10798,7 +10798,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -10825,50 +10825,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/Medium Instances/Medium3.xlsx
+++ b/Medium Instances/Medium3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobni\SamkjøringKode\samkjoring2022\Medium Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFA6772-BC8A-45EA-8C08-3E455D574066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B48A51-707F-4966-834A-81FF478A6A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medium3" sheetId="12" r:id="rId1"/>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1181,50 +1181,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Foldnes</v>
+        <v>Hellesøy</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.1065680000000002</v>
+        <v>4.7908670000000004</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.375988</v>
+        <v>60.661020999999998</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="0">C2*111.021</f>
-        <v>566.93628592800007</v>
+        <v>531.88684520700008</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6734.6472124410002</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G6" ca="1" si="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="2">H2*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1255,50 +1255,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B26" ca="1" si="3">INDEX($W$3:$W$26,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C26" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D26" ca="1" si="5">_xlfn.XLOOKUP(B3,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="6">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1331,50 +1331,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Foldnes</v>
+        <v>Vågo</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.388821</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1404,50 +1404,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kleppe</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1359649999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.187809999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.19997026499993</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6682.1108540100004</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H26" ca="1" si="7">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I19" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1477,23 +1477,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1550,50 +1550,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hellesøy</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7908670000000004</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.661020999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>531.88684520700008</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6734.6472124410002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1611,50 +1611,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1692,30 +1692,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1733,23 +1733,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Telavåg</v>
+        <v>Ebbesvika</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1401279999999998</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.336067999999997</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>570.662150688</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6698.5706054279999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1794,50 +1794,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hellesøy</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7908670000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.661020999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>531.88684520700008</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6734.6472124410002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1856,50 +1856,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1920,50 +1920,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knappskog</v>
+        <v>Tofterøy</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0525099999999998</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.185890000000001</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>560.93471270999999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6681.8976936899999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="W13" t="s">
         <v>42</v>
@@ -1981,50 +1981,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Rongøy</v>
+        <v>Solsvik</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9155160000000002</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.507615999999999</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>545.72550183600003</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6717.6160359360001</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="W14" t="s">
         <v>44</v>
@@ -2103,50 +2103,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hammersland</v>
+        <v>Vorland</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0687990000000003</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.259569999999997</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>562.743133779</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.07772097</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s">
         <v>47</v>
@@ -2164,50 +2164,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Blomøy</v>
+        <v>Solsvik</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8927480000000001</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.538108000000001</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>543.19777570799999</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6721.0012882680003</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="W17" t="s">
         <v>48</v>
@@ -2225,50 +2225,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hjelteryggen</v>
+        <v>Ebbesvika</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1544819999999998</v>
+        <v>5.1401279999999998</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.381360999999998</v>
+        <v>60.336067999999997</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>572.25574612200001</v>
+        <v>570.662150688</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.5990795810003</v>
+        <v>6698.5706054279999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W18" t="s">
         <v>49</v>
@@ -2286,50 +2286,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Foldnes</v>
+        <v>Solsvik</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.93628592800007</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2360,50 +2360,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Tofterøy</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>5.0525099999999998</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.185890000000001</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>551.37569358899998</v>
+        <v>560.93471270999999</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6709.1102730419998</v>
+        <v>6681.8976936899999</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="12">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2436,50 +2436,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Telavåg</v>
+        <v>Ebbesvika</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1401279999999998</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.336067999999997</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>570.662150688</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6698.5706054279999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2512,50 +2512,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2589,50 +2589,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hjelteryggen</v>
+        <v>Kleppe</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1544819999999998</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.381360999999998</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.25574612200001</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.5990795810003</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2666,50 +2666,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Straume</v>
+        <v>Arefjord</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2743,23 +2743,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hammersland</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0687990000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.259569999999997</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="13">C25*111.021</f>
-        <v>562.743133779</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="14">D25*111.021</f>
-        <v>6690.07772097</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2822,50 +2822,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Rongøy</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9155160000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.507615999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>554.37814551299994</v>
+        <v>545.72550183600003</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6704.4084226710002</v>
+        <v>6717.6160359360001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="12"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -3892,50 +3892,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -3953,23 +3953,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -4014,23 +4014,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -4075,23 +4075,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4136,50 +4136,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -4198,23 +4198,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -4262,50 +4262,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4314,50 +4314,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4366,50 +4366,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4470,23 +4470,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4522,50 +4522,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4574,50 +4574,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -5830,50 +5830,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -5891,50 +5891,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -5952,23 +5952,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -6013,50 +6013,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -6074,23 +6074,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6136,50 +6136,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6200,23 +6200,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6252,50 +6252,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6304,43 +6304,43 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
@@ -6356,23 +6356,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -7500,50 +7500,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -7570,50 +7570,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -7660,30 +7660,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -7701,50 +7701,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -7762,50 +7762,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -7823,43 +7823,43 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
@@ -7884,50 +7884,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -7946,43 +7946,43 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
@@ -8010,50 +8010,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9103,50 +9103,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -9173,50 +9173,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -9243,23 +9243,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -9286,7 +9286,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -9313,23 +9313,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -9374,50 +9374,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -9435,50 +9435,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -9496,50 +9496,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -9557,50 +9557,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10685,50 +10685,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -10755,50 +10755,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -10825,23 +10825,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10868,7 +10868,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
